--- a/data_craw/quarter/balance_sheet_quarter/bid.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/bid.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12638511000000</v>
+        <v>10401494000000</v>
       </c>
       <c r="C4" t="n">
-        <v>14116670000000</v>
+        <v>12294194000000</v>
       </c>
       <c r="D4" t="n">
-        <v>9097015000000</v>
+        <v>10770158000000</v>
       </c>
       <c r="E4" t="n">
-        <v>11822072000000</v>
+        <v>11073415000000</v>
       </c>
       <c r="F4" t="n">
-        <v>10401494000000</v>
+        <v>11440685000000</v>
       </c>
       <c r="G4" t="n">
-        <v>12294194000000</v>
+        <v>12660583000000</v>
       </c>
       <c r="H4" t="n">
-        <v>10770158000000</v>
+        <v>12191932000000</v>
       </c>
       <c r="I4" t="n">
-        <v>11073415000000</v>
+        <v>11894083000000</v>
       </c>
       <c r="J4" t="n">
-        <v>11440685000000</v>
+        <v>12176802000000</v>
       </c>
       <c r="K4" t="n">
-        <v>12660583000000</v>
+        <v>13745227000000</v>
       </c>
       <c r="L4" t="n">
-        <v>12191932000000</v>
+        <v>12400755000000</v>
       </c>
       <c r="M4" t="n">
-        <v>11894083000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12176802000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13745227000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12400755000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>11488667000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42191695000000</v>
+        <v>40335703000000</v>
       </c>
       <c r="C7" t="n">
-        <v>135255429000000</v>
+        <v>49434766000000</v>
       </c>
       <c r="D7" t="n">
-        <v>26782623000000</v>
+        <v>91672598000000</v>
       </c>
       <c r="E7" t="n">
-        <v>28062207000000</v>
+        <v>37588465000000</v>
       </c>
       <c r="F7" t="n">
-        <v>40335703000000</v>
+        <v>64251759000000</v>
       </c>
       <c r="G7" t="n">
-        <v>49434766000000</v>
+        <v>68851444000000</v>
       </c>
       <c r="H7" t="n">
-        <v>91672598000000</v>
+        <v>58216772000000</v>
       </c>
       <c r="I7" t="n">
-        <v>37588465000000</v>
+        <v>48204728000000</v>
       </c>
       <c r="J7" t="n">
-        <v>64251759000000</v>
+        <v>45003431000000</v>
       </c>
       <c r="K7" t="n">
-        <v>68851444000000</v>
+        <v>111418448000000</v>
       </c>
       <c r="L7" t="n">
-        <v>58216772000000</v>
+        <v>74131546000000</v>
       </c>
       <c r="M7" t="n">
-        <v>48204728000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>45003431000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>111418448000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>74131546000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>47536512000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130025743000000</v>
+        <v>116003134000000</v>
       </c>
       <c r="C11" t="n">
-        <v>43718543000000</v>
+        <v>85348812000000</v>
       </c>
       <c r="D11" t="n">
-        <v>121290315000000</v>
+        <v>85087146000000</v>
       </c>
       <c r="E11" t="n">
-        <v>107922963000000</v>
+        <v>145998134000000</v>
       </c>
       <c r="F11" t="n">
-        <v>116003134000000</v>
+        <v>115503372000000</v>
       </c>
       <c r="G11" t="n">
-        <v>85348812000000</v>
+        <v>135940238000000</v>
       </c>
       <c r="H11" t="n">
-        <v>85087146000000</v>
+        <v>163893889000000</v>
       </c>
       <c r="I11" t="n">
-        <v>145998134000000</v>
+        <v>216987172000000</v>
       </c>
       <c r="J11" t="n">
-        <v>115503372000000</v>
+        <v>259681711000000</v>
       </c>
       <c r="K11" t="n">
-        <v>135940238000000</v>
+        <v>221146701000000</v>
       </c>
       <c r="L11" t="n">
-        <v>163893889000000</v>
+        <v>174793284000000</v>
       </c>
       <c r="M11" t="n">
-        <v>216987172000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>259681711000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>221146701000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>174793284000000</v>
-      </c>
-      <c r="Q11" t="n">
         <v>199683000000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,51 +829,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107992152000000</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>96756092000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>62192181000000</v>
+      </c>
       <c r="D12" t="n">
-        <v>91778750000000</v>
+        <v>74269353000000</v>
       </c>
       <c r="E12" t="n">
-        <v>83463712000000</v>
+        <v>125484815000000</v>
       </c>
       <c r="F12" t="n">
-        <v>96756092000000</v>
+        <v>97934016000000</v>
       </c>
       <c r="G12" t="n">
-        <v>62192181000000</v>
+        <v>112042997000000</v>
       </c>
       <c r="H12" t="n">
-        <v>74269353000000</v>
+        <v>141148805000000</v>
       </c>
       <c r="I12" t="n">
-        <v>125484815000000</v>
+        <v>191862728000000</v>
       </c>
       <c r="J12" t="n">
-        <v>97934016000000</v>
+        <v>233692368000000</v>
       </c>
       <c r="K12" t="n">
-        <v>112042997000000</v>
+        <v>203435821000000</v>
       </c>
       <c r="L12" t="n">
-        <v>141148805000000</v>
+        <v>162363758000000</v>
       </c>
       <c r="M12" t="n">
-        <v>191862728000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>233692368000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>203435821000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>162363758000000</v>
-      </c>
-      <c r="Q12" t="n">
         <v>186326791000000</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -906,53 +876,45 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22143226000000</v>
+        <v>19391253000000</v>
       </c>
       <c r="C13" t="n">
-        <v>10717769000000</v>
+        <v>23295457000000</v>
       </c>
       <c r="D13" t="n">
-        <v>29658771000000</v>
+        <v>10957492000000</v>
       </c>
       <c r="E13" t="n">
-        <v>24604400000000</v>
+        <v>20647195000000</v>
       </c>
       <c r="F13" t="n">
-        <v>19391253000000</v>
+        <v>17701040000000</v>
       </c>
       <c r="G13" t="n">
-        <v>23295457000000</v>
+        <v>24026575000000</v>
       </c>
       <c r="H13" t="n">
-        <v>10957492000000</v>
+        <v>22871707000000</v>
       </c>
       <c r="I13" t="n">
-        <v>20647195000000</v>
+        <v>25250680000000</v>
       </c>
       <c r="J13" t="n">
-        <v>17701040000000</v>
+        <v>26111007000000</v>
       </c>
       <c r="K13" t="n">
-        <v>24026575000000</v>
+        <v>17795874000000</v>
       </c>
       <c r="L13" t="n">
-        <v>22871707000000</v>
+        <v>12514576000000</v>
       </c>
       <c r="M13" t="n">
-        <v>25250680000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>26111007000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>17795874000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>12514576000000</v>
-      </c>
-      <c r="Q13" t="n">
         <v>13439406000000</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1076,53 +1038,45 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-109635000000</v>
+        <v>-144211000000</v>
       </c>
       <c r="C19" t="n">
-        <v>-146192000000</v>
+        <v>-138826000000</v>
       </c>
       <c r="D19" t="n">
-        <v>-147206000000</v>
+        <v>-139699000000</v>
       </c>
       <c r="E19" t="n">
-        <v>-145149000000</v>
+        <v>-133876000000</v>
       </c>
       <c r="F19" t="n">
-        <v>-144211000000</v>
+        <v>-131684000000</v>
       </c>
       <c r="G19" t="n">
-        <v>-138826000000</v>
+        <v>-129334000000</v>
       </c>
       <c r="H19" t="n">
-        <v>-139699000000</v>
+        <v>-126623000000</v>
       </c>
       <c r="I19" t="n">
-        <v>-133876000000</v>
+        <v>-126236000000</v>
       </c>
       <c r="J19" t="n">
-        <v>-131684000000</v>
+        <v>-121664000000</v>
       </c>
       <c r="K19" t="n">
-        <v>-129334000000</v>
+        <v>-84994000000</v>
       </c>
       <c r="L19" t="n">
-        <v>-126623000000</v>
+        <v>-85050000000</v>
       </c>
       <c r="M19" t="n">
-        <v>-126236000000</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-121664000000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>-84994000000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-85050000000</v>
-      </c>
-      <c r="Q19" t="n">
         <v>-83197000000</v>
       </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1130,52 +1084,44 @@
           <t>IV. Hàng tồn kho</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2096049000000</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>63461900000000</v>
+        <v>10069208000000</v>
       </c>
       <c r="D20" t="n">
-        <v>5721025000000</v>
+        <v>3574042000000</v>
       </c>
       <c r="E20" t="n">
-        <v>4970625000000</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>3612147000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6350644000000</v>
+      </c>
       <c r="G20" t="n">
-        <v>10069208000000</v>
+        <v>6066664000000</v>
       </c>
       <c r="H20" t="n">
-        <v>3574042000000</v>
+        <v>3274752000000</v>
       </c>
       <c r="I20" t="n">
-        <v>3612147000000</v>
+        <v>1878861000000</v>
       </c>
       <c r="J20" t="n">
-        <v>6350644000000</v>
+        <v>1110756000000</v>
       </c>
       <c r="K20" t="n">
-        <v>6066664000000</v>
+        <v>1701421000000</v>
       </c>
       <c r="L20" t="n">
-        <v>3274752000000</v>
+        <v>1602918000000</v>
       </c>
       <c r="M20" t="n">
-        <v>1878861000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1110756000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1701421000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1602918000000</v>
-      </c>
-      <c r="Q20" t="n">
         <v>3448599000000</v>
       </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1184,53 +1130,45 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2139394000000</v>
+        <v>5688349000000</v>
       </c>
       <c r="C21" t="n">
-        <v>63803790000000</v>
+        <v>10082433000000</v>
       </c>
       <c r="D21" t="n">
-        <v>5815488000000</v>
+        <v>3586841000000</v>
       </c>
       <c r="E21" t="n">
-        <v>4986402000000</v>
+        <v>3633620000000</v>
       </c>
       <c r="F21" t="n">
-        <v>5688349000000</v>
+        <v>6374417000000</v>
       </c>
       <c r="G21" t="n">
-        <v>10082433000000</v>
+        <v>6083163000000</v>
       </c>
       <c r="H21" t="n">
-        <v>3586841000000</v>
+        <v>3286806000000</v>
       </c>
       <c r="I21" t="n">
-        <v>3633620000000</v>
+        <v>1918275000000</v>
       </c>
       <c r="J21" t="n">
-        <v>6374417000000</v>
+        <v>1164743000000</v>
       </c>
       <c r="K21" t="n">
-        <v>6083163000000</v>
+        <v>1748478000000</v>
       </c>
       <c r="L21" t="n">
-        <v>3286806000000</v>
+        <v>1624018000000</v>
       </c>
       <c r="M21" t="n">
-        <v>1918275000000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1164743000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1748478000000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1624018000000</v>
-      </c>
-      <c r="Q21" t="n">
         <v>3469114000000</v>
       </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1239,53 +1177,45 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-43345000000</v>
+        <v>-6598000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-341890000000</v>
+        <v>-13225000000</v>
       </c>
       <c r="D22" t="n">
-        <v>-94463000000</v>
+        <v>-12799000000</v>
       </c>
       <c r="E22" t="n">
-        <v>-15777000000</v>
+        <v>-21473000000</v>
       </c>
       <c r="F22" t="n">
-        <v>-6598000000</v>
+        <v>-23773000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-13225000000</v>
+        <v>-16499000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-12799000000</v>
+        <v>-12054000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-21473000000</v>
+        <v>-39414000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-23773000000</v>
+        <v>-53987000000</v>
       </c>
       <c r="K22" t="n">
-        <v>-16499000000</v>
+        <v>-47057000000</v>
       </c>
       <c r="L22" t="n">
-        <v>-12054000000</v>
+        <v>-21100000000</v>
       </c>
       <c r="M22" t="n">
-        <v>-39414000000</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-53987000000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-47057000000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-21100000000</v>
-      </c>
-      <c r="Q22" t="n">
         <v>-20515000000</v>
       </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1294,49 +1224,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99899000000</v>
-      </c>
-      <c r="C23" t="n">
-        <v>921300000000</v>
-      </c>
+        <v>222404000000</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>210196000000</v>
+        <v>221388000000</v>
       </c>
       <c r="E23" t="n">
-        <v>208119000000</v>
+        <v>236204000000</v>
       </c>
       <c r="F23" t="n">
-        <v>222404000000</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>378534000000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>192282000000</v>
+      </c>
       <c r="H23" t="n">
-        <v>221388000000</v>
-      </c>
-      <c r="I23" t="n">
-        <v>236204000000</v>
-      </c>
+        <v>70158000000</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>378534000000</v>
+        <v>231930000000</v>
       </c>
       <c r="K23" t="n">
-        <v>192282000000</v>
+        <v>1038214000000</v>
       </c>
       <c r="L23" t="n">
-        <v>70158000000</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
-        <v>231930000000</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1038214000000</v>
-      </c>
-      <c r="P23" t="n">
         <v>196039000000</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="M23" t="n">
         <v>295688000000</v>
       </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1483,53 +1405,45 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2682443000000</v>
+        <v>2706855000000</v>
       </c>
       <c r="C30" t="n">
-        <v>2745490000000</v>
+        <v>2763768000000</v>
       </c>
       <c r="D30" t="n">
-        <v>2833666000000</v>
+        <v>2842564000000</v>
       </c>
       <c r="E30" t="n">
-        <v>2700985000000</v>
+        <v>2864564000000</v>
       </c>
       <c r="F30" t="n">
-        <v>2706855000000</v>
+        <v>2902893000000</v>
       </c>
       <c r="G30" t="n">
-        <v>2763768000000</v>
+        <v>2873924000000</v>
       </c>
       <c r="H30" t="n">
-        <v>2842564000000</v>
+        <v>2860964000000</v>
       </c>
       <c r="I30" t="n">
-        <v>2864564000000</v>
+        <v>2969936000000</v>
       </c>
       <c r="J30" t="n">
-        <v>2902893000000</v>
+        <v>3090065000000</v>
       </c>
       <c r="K30" t="n">
-        <v>2873924000000</v>
+        <v>2977388000000</v>
       </c>
       <c r="L30" t="n">
-        <v>2860964000000</v>
+        <v>3026702000000</v>
       </c>
       <c r="M30" t="n">
-        <v>2969936000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3090065000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2977388000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3026702000000</v>
-      </c>
-      <c r="Q30" t="n">
         <v>3003368000000</v>
       </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1561,47 +1475,39 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1998026000000</v>
+        <v>1993392000000</v>
       </c>
       <c r="C32" t="n">
-        <v>2020226000000</v>
+        <v>2039869000000</v>
       </c>
       <c r="D32" t="n">
-        <v>2089177000000</v>
+        <v>2112621000000</v>
       </c>
       <c r="E32" t="n">
-        <v>2004074000000</v>
+        <v>2133988000000</v>
       </c>
       <c r="F32" t="n">
-        <v>1993392000000</v>
+        <v>2125334000000</v>
       </c>
       <c r="G32" t="n">
-        <v>2039869000000</v>
+        <v>2134086000000</v>
       </c>
       <c r="H32" t="n">
-        <v>2112621000000</v>
+        <v>2136886000000</v>
       </c>
       <c r="I32" t="n">
-        <v>2133988000000</v>
+        <v>2214709000000</v>
       </c>
       <c r="J32" t="n">
-        <v>2125334000000</v>
+        <v>2310463000000</v>
       </c>
       <c r="K32" t="n">
-        <v>2134086000000</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2136886000000</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2214709000000</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2310463000000</v>
-      </c>
-      <c r="O32" t="n">
         <v>2243217000000</v>
       </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
     </row>
@@ -1612,53 +1518,45 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>591032000000</v>
+        <v>602084000000</v>
       </c>
       <c r="C33" t="n">
-        <v>608610000000</v>
+        <v>603605000000</v>
       </c>
       <c r="D33" t="n">
-        <v>633015000000</v>
+        <v>618113000000</v>
       </c>
       <c r="E33" t="n">
-        <v>585489000000</v>
+        <v>618873000000</v>
       </c>
       <c r="F33" t="n">
-        <v>602084000000</v>
+        <v>632889000000</v>
       </c>
       <c r="G33" t="n">
-        <v>603605000000</v>
+        <v>595596000000</v>
       </c>
       <c r="H33" t="n">
-        <v>618113000000</v>
+        <v>611667000000</v>
       </c>
       <c r="I33" t="n">
-        <v>618873000000</v>
+        <v>643520000000</v>
       </c>
       <c r="J33" t="n">
-        <v>632889000000</v>
+        <v>674504000000</v>
       </c>
       <c r="K33" t="n">
-        <v>595596000000</v>
+        <v>628324000000</v>
       </c>
       <c r="L33" t="n">
-        <v>611667000000</v>
+        <v>2272439000000</v>
       </c>
       <c r="M33" t="n">
-        <v>643520000000</v>
-      </c>
-      <c r="N33" t="n">
-        <v>674504000000</v>
-      </c>
-      <c r="O33" t="n">
-        <v>628324000000</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2272439000000</v>
-      </c>
-      <c r="Q33" t="n">
         <v>664144000000</v>
       </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1667,53 +1565,45 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214690000000</v>
+        <v>215496000000</v>
       </c>
       <c r="C34" t="n">
-        <v>214679000000</v>
+        <v>215470000000</v>
       </c>
       <c r="D34" t="n">
-        <v>215591000000</v>
+        <v>216069000000</v>
       </c>
       <c r="E34" t="n">
-        <v>215539000000</v>
+        <v>216045000000</v>
       </c>
       <c r="F34" t="n">
-        <v>215496000000</v>
+        <v>215903000000</v>
       </c>
       <c r="G34" t="n">
-        <v>215470000000</v>
+        <v>215617000000</v>
       </c>
       <c r="H34" t="n">
-        <v>216069000000</v>
+        <v>216431000000</v>
       </c>
       <c r="I34" t="n">
-        <v>216045000000</v>
+        <v>215534000000</v>
       </c>
       <c r="J34" t="n">
-        <v>215903000000</v>
+        <v>215211000000</v>
       </c>
       <c r="K34" t="n">
-        <v>215617000000</v>
+        <v>215076000000</v>
       </c>
       <c r="L34" t="n">
-        <v>216431000000</v>
+        <v>215211000000</v>
       </c>
       <c r="M34" t="n">
-        <v>215534000000</v>
-      </c>
-      <c r="N34" t="n">
-        <v>215211000000</v>
-      </c>
-      <c r="O34" t="n">
-        <v>215076000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>215211000000</v>
-      </c>
-      <c r="Q34" t="n">
         <v>219426000000</v>
       </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1768,53 +1658,45 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-121305000000</v>
+        <v>-104117000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-98025000000</v>
+        <v>-95176000000</v>
       </c>
       <c r="D37" t="n">
-        <v>-104117000000</v>
+        <v>-104239000000</v>
       </c>
       <c r="E37" t="n">
-        <v>-104117000000</v>
+        <v>-104342000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-104117000000</v>
+        <v>-71233000000</v>
       </c>
       <c r="G37" t="n">
-        <v>-95176000000</v>
+        <v>-71375000000</v>
       </c>
       <c r="H37" t="n">
-        <v>-104239000000</v>
+        <v>-104020000000</v>
       </c>
       <c r="I37" t="n">
-        <v>-104342000000</v>
+        <v>-103827000000</v>
       </c>
       <c r="J37" t="n">
-        <v>-71233000000</v>
+        <v>-110113000000</v>
       </c>
       <c r="K37" t="n">
-        <v>-71375000000</v>
+        <v>-109229000000</v>
       </c>
       <c r="L37" t="n">
-        <v>-104020000000</v>
+        <v>-109172000000</v>
       </c>
       <c r="M37" t="n">
-        <v>-103827000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-110113000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-109229000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-109172000000</v>
-      </c>
-      <c r="Q37" t="n">
         <v>-113606000000</v>
       </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1823,53 +1705,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10223581000000</v>
+        <v>10168812000000</v>
       </c>
       <c r="C38" t="n">
-        <v>10604693000000</v>
+        <v>10413985000000</v>
       </c>
       <c r="D38" t="n">
-        <v>10397552000000</v>
+        <v>10241492000000</v>
       </c>
       <c r="E38" t="n">
-        <v>10317039000000</v>
+        <v>10152116000000</v>
       </c>
       <c r="F38" t="n">
-        <v>10168812000000</v>
+        <v>10382490000000</v>
       </c>
       <c r="G38" t="n">
-        <v>10413985000000</v>
+        <v>10741157000000</v>
       </c>
       <c r="H38" t="n">
-        <v>10241492000000</v>
+        <v>10509295000000</v>
       </c>
       <c r="I38" t="n">
-        <v>10152116000000</v>
+        <v>10259927000000</v>
       </c>
       <c r="J38" t="n">
-        <v>10382490000000</v>
+        <v>10131837000000</v>
       </c>
       <c r="K38" t="n">
-        <v>10741157000000</v>
+        <v>10532205000000</v>
       </c>
       <c r="L38" t="n">
-        <v>10509295000000</v>
+        <v>10375801000000</v>
       </c>
       <c r="M38" t="n">
-        <v>10259927000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>10131837000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>10532205000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>10375801000000</v>
-      </c>
-      <c r="Q38" t="n">
         <v>10612120000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1878,53 +1752,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5947299000000</v>
+        <v>5973387000000</v>
       </c>
       <c r="C39" t="n">
-        <v>6294526000000</v>
+        <v>6154218000000</v>
       </c>
       <c r="D39" t="n">
-        <v>6125427000000</v>
+        <v>6009491000000</v>
       </c>
       <c r="E39" t="n">
-        <v>6078364000000</v>
+        <v>5924875000000</v>
       </c>
       <c r="F39" t="n">
-        <v>5973387000000</v>
+        <v>6073131000000</v>
       </c>
       <c r="G39" t="n">
-        <v>6154218000000</v>
+        <v>6338007000000</v>
       </c>
       <c r="H39" t="n">
-        <v>6009491000000</v>
+        <v>6156731000000</v>
       </c>
       <c r="I39" t="n">
-        <v>5924875000000</v>
+        <v>5953329000000</v>
       </c>
       <c r="J39" t="n">
-        <v>6073131000000</v>
+        <v>5800792000000</v>
       </c>
       <c r="K39" t="n">
-        <v>6338007000000</v>
+        <v>6096042000000</v>
       </c>
       <c r="L39" t="n">
-        <v>6156731000000</v>
+        <v>5988232000000</v>
       </c>
       <c r="M39" t="n">
-        <v>5953329000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5800792000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>6096042000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5988232000000</v>
-      </c>
-      <c r="Q39" t="n">
         <v>6111439000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1933,53 +1799,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12292481000000</v>
+        <v>13037198000000</v>
       </c>
       <c r="C40" t="n">
-        <v>12784828000000</v>
+        <v>13353426000000</v>
       </c>
       <c r="D40" t="n">
-        <v>12818271000000</v>
+        <v>13361527000000</v>
       </c>
       <c r="E40" t="n">
-        <v>12956464000000</v>
+        <v>13474762000000</v>
       </c>
       <c r="F40" t="n">
-        <v>13037198000000</v>
+        <v>13851878000000</v>
       </c>
       <c r="G40" t="n">
-        <v>13353426000000</v>
+        <v>14264202000000</v>
       </c>
       <c r="H40" t="n">
-        <v>13361527000000</v>
+        <v>14264920000000</v>
       </c>
       <c r="I40" t="n">
-        <v>13474762000000</v>
+        <v>14200615000000</v>
       </c>
       <c r="J40" t="n">
-        <v>13851878000000</v>
+        <v>14214547000000</v>
       </c>
       <c r="K40" t="n">
-        <v>14264202000000</v>
+        <v>14594233000000</v>
       </c>
       <c r="L40" t="n">
-        <v>14264920000000</v>
+        <v>14703311000000</v>
       </c>
       <c r="M40" t="n">
-        <v>14200615000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>14214547000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>14594233000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>14703311000000</v>
-      </c>
-      <c r="Q40" t="n">
         <v>15085989000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1988,53 +1846,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6345182000000</v>
+        <v>-7063811000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-6490302000000</v>
+        <v>-7199208000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-6692844000000</v>
+        <v>-7352036000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-6878100000000</v>
+        <v>-7549887000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-7063811000000</v>
+        <v>-7778747000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-7199208000000</v>
+        <v>-7926195000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-7352036000000</v>
+        <v>-8108189000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-7549887000000</v>
+        <v>-8247286000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-7778747000000</v>
+        <v>-8413755000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-7926195000000</v>
+        <v>-8498191000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-8108189000000</v>
+        <v>-8715079000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-8247286000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-8413755000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-8498191000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-8715079000000</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-8974550000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2112,53 +1962,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4276282000000</v>
+        <v>4195425000000</v>
       </c>
       <c r="C45" t="n">
-        <v>4310167000000</v>
+        <v>4259767000000</v>
       </c>
       <c r="D45" t="n">
-        <v>4272125000000</v>
+        <v>4232001000000</v>
       </c>
       <c r="E45" t="n">
-        <v>4238675000000</v>
+        <v>4227241000000</v>
       </c>
       <c r="F45" t="n">
-        <v>4195425000000</v>
+        <v>4309359000000</v>
       </c>
       <c r="G45" t="n">
-        <v>4259767000000</v>
+        <v>4403150000000</v>
       </c>
       <c r="H45" t="n">
-        <v>4232001000000</v>
+        <v>4352564000000</v>
       </c>
       <c r="I45" t="n">
-        <v>4227241000000</v>
+        <v>4306598000000</v>
       </c>
       <c r="J45" t="n">
-        <v>4309359000000</v>
+        <v>4331045000000</v>
       </c>
       <c r="K45" t="n">
-        <v>4403150000000</v>
+        <v>4436163000000</v>
       </c>
       <c r="L45" t="n">
-        <v>4352564000000</v>
+        <v>4387569000000</v>
       </c>
       <c r="M45" t="n">
-        <v>4306598000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4331045000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4436163000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4387569000000</v>
-      </c>
-      <c r="Q45" t="n">
         <v>4500681000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2167,53 +2009,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5782705000000</v>
+        <v>5889534000000</v>
       </c>
       <c r="C46" t="n">
-        <v>5866116000000</v>
+        <v>6007344000000</v>
       </c>
       <c r="D46" t="n">
-        <v>5878777000000</v>
+        <v>6015070000000</v>
       </c>
       <c r="E46" t="n">
-        <v>5889064000000</v>
+        <v>6048777000000</v>
       </c>
       <c r="F46" t="n">
-        <v>5889534000000</v>
+        <v>6207874000000</v>
       </c>
       <c r="G46" t="n">
-        <v>6007344000000</v>
+        <v>6407788000000</v>
       </c>
       <c r="H46" t="n">
-        <v>6015070000000</v>
+        <v>6402114000000</v>
       </c>
       <c r="I46" t="n">
-        <v>6048777000000</v>
+        <v>6396112000000</v>
       </c>
       <c r="J46" t="n">
-        <v>6207874000000</v>
+        <v>6478593000000</v>
       </c>
       <c r="K46" t="n">
-        <v>6407788000000</v>
+        <v>6639598000000</v>
       </c>
       <c r="L46" t="n">
-        <v>6402114000000</v>
+        <v>6647076000000</v>
       </c>
       <c r="M46" t="n">
-        <v>6396112000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>6478593000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>6639598000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>6647076000000</v>
-      </c>
-      <c r="Q46" t="n">
         <v>6839542000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2222,53 +2056,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1506423000000</v>
+        <v>-1694109000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-1555949000000</v>
+        <v>-1747577000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-1606652000000</v>
+        <v>-1783069000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-1650389000000</v>
+        <v>-1821536000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-1694109000000</v>
+        <v>-1898515000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1747577000000</v>
+        <v>-2004638000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-1783069000000</v>
+        <v>-2049550000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-1821536000000</v>
+        <v>-2089514000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-1898515000000</v>
+        <v>-2147548000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-2004638000000</v>
+        <v>-2203435000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-2049550000000</v>
+        <v>-2259507000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-2089514000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2147548000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-2203435000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-2259507000000</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-2338861000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2415,53 +2241,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>27044708000000</v>
+        <v>27710168000000</v>
       </c>
       <c r="C54" t="n">
-        <v>26037625000000</v>
+        <v>25728773000000</v>
       </c>
       <c r="D54" t="n">
-        <v>28103139000000</v>
+        <v>26335191000000</v>
       </c>
       <c r="E54" t="n">
-        <v>26288927000000</v>
+        <v>26132391000000</v>
       </c>
       <c r="F54" t="n">
-        <v>27710168000000</v>
+        <v>27090133000000</v>
       </c>
       <c r="G54" t="n">
-        <v>25728773000000</v>
+        <v>21945701000000</v>
       </c>
       <c r="H54" t="n">
-        <v>26335191000000</v>
+        <v>23736859000000</v>
       </c>
       <c r="I54" t="n">
-        <v>26132391000000</v>
+        <v>29448721000000</v>
       </c>
       <c r="J54" t="n">
-        <v>27090133000000</v>
+        <v>33720267000000</v>
       </c>
       <c r="K54" t="n">
-        <v>21945701000000</v>
+        <v>38300861000000</v>
       </c>
       <c r="L54" t="n">
-        <v>23736859000000</v>
+        <v>38794719000000</v>
       </c>
       <c r="M54" t="n">
-        <v>29448721000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>33720267000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>38300861000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>38794719000000</v>
-      </c>
-      <c r="Q54" t="n">
         <v>40088056000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2470,53 +2288,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10333904000000</v>
+        <v>11604505000000</v>
       </c>
       <c r="C55" t="n">
-        <v>9287044000000</v>
+        <v>9780514000000</v>
       </c>
       <c r="D55" t="n">
-        <v>9852281000000</v>
+        <v>10736555000000</v>
       </c>
       <c r="E55" t="n">
-        <v>9772779000000</v>
+        <v>9897420000000</v>
       </c>
       <c r="F55" t="n">
-        <v>11604505000000</v>
+        <v>10060667000000</v>
       </c>
       <c r="G55" t="n">
-        <v>9780514000000</v>
+        <v>7840832000000</v>
       </c>
       <c r="H55" t="n">
-        <v>10736555000000</v>
+        <v>9012335000000</v>
       </c>
       <c r="I55" t="n">
-        <v>9897420000000</v>
+        <v>13828776000000</v>
       </c>
       <c r="J55" t="n">
-        <v>10060667000000</v>
+        <v>16536381000000</v>
       </c>
       <c r="K55" t="n">
-        <v>7840832000000</v>
+        <v>22638187000000</v>
       </c>
       <c r="L55" t="n">
-        <v>9012335000000</v>
+        <v>22226244000000</v>
       </c>
       <c r="M55" t="n">
-        <v>13828776000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>16536381000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>22638187000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>22226244000000</v>
-      </c>
-      <c r="Q55" t="n">
         <v>23352945000000</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2525,53 +2335,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13239534000000</v>
+        <v>12958286000000</v>
       </c>
       <c r="C56" t="n">
-        <v>12862809000000</v>
+        <v>12819145000000</v>
       </c>
       <c r="D56" t="n">
-        <v>14501925000000</v>
+        <v>12572173000000</v>
       </c>
       <c r="E56" t="n">
-        <v>13218624000000</v>
+        <v>12883395000000</v>
       </c>
       <c r="F56" t="n">
-        <v>12958286000000</v>
+        <v>13947276000000</v>
       </c>
       <c r="G56" t="n">
-        <v>12819145000000</v>
+        <v>11041863000000</v>
       </c>
       <c r="H56" t="n">
-        <v>12572173000000</v>
+        <v>12119905000000</v>
       </c>
       <c r="I56" t="n">
-        <v>12883395000000</v>
+        <v>12613339000000</v>
       </c>
       <c r="J56" t="n">
-        <v>13947276000000</v>
+        <v>12771115000000</v>
       </c>
       <c r="K56" t="n">
-        <v>11041863000000</v>
+        <v>13019886000000</v>
       </c>
       <c r="L56" t="n">
-        <v>12119905000000</v>
+        <v>13738386000000</v>
       </c>
       <c r="M56" t="n">
-        <v>12613339000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12771115000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>13019886000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>13738386000000</v>
-      </c>
-      <c r="Q56" t="n">
         <v>13976803000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2580,53 +2382,45 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>35701000000</v>
+        <v>47044000000</v>
       </c>
       <c r="C57" t="n">
-        <v>38915000000</v>
+        <v>37294000000</v>
       </c>
       <c r="D57" t="n">
-        <v>37016000000</v>
+        <v>41241000000</v>
       </c>
       <c r="E57" t="n">
-        <v>41698000000</v>
+        <v>42325000000</v>
       </c>
       <c r="F57" t="n">
-        <v>47044000000</v>
+        <v>35054000000</v>
       </c>
       <c r="G57" t="n">
-        <v>37294000000</v>
+        <v>36588000000</v>
       </c>
       <c r="H57" t="n">
-        <v>41241000000</v>
+        <v>36509000000</v>
       </c>
       <c r="I57" t="n">
-        <v>42325000000</v>
+        <v>36641000000</v>
       </c>
       <c r="J57" t="n">
-        <v>35054000000</v>
+        <v>37751000000</v>
       </c>
       <c r="K57" t="n">
-        <v>36588000000</v>
+        <v>35542000000</v>
       </c>
       <c r="L57" t="n">
-        <v>36509000000</v>
+        <v>35462000000</v>
       </c>
       <c r="M57" t="n">
-        <v>36641000000</v>
-      </c>
-      <c r="N57" t="n">
-        <v>37751000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>35542000000</v>
-      </c>
-      <c r="P57" t="n">
-        <v>35462000000</v>
-      </c>
-      <c r="Q57" t="n">
         <v>35577000000</v>
       </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2635,53 +2429,45 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4373969000000</v>
+        <v>3723407000000</v>
       </c>
       <c r="C58" t="n">
-        <v>4492138000000</v>
+        <v>3709300000000</v>
       </c>
       <c r="D58" t="n">
-        <v>4347360000000</v>
+        <v>3579187000000</v>
       </c>
       <c r="E58" t="n">
-        <v>3889147000000</v>
+        <v>3899666000000</v>
       </c>
       <c r="F58" t="n">
-        <v>3723407000000</v>
+        <v>3645310000000</v>
       </c>
       <c r="G58" t="n">
-        <v>3709300000000</v>
+        <v>3590086000000</v>
       </c>
       <c r="H58" t="n">
-        <v>3579187000000</v>
+        <v>3131883000000</v>
       </c>
       <c r="I58" t="n">
-        <v>3899666000000</v>
+        <v>3527588000000</v>
       </c>
       <c r="J58" t="n">
-        <v>3645310000000</v>
+        <v>4929360000000</v>
       </c>
       <c r="K58" t="n">
-        <v>3590086000000</v>
+        <v>3185585000000</v>
       </c>
       <c r="L58" t="n">
-        <v>3131883000000</v>
+        <v>3402738000000</v>
       </c>
       <c r="M58" t="n">
-        <v>3527588000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>4929360000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>3185585000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>3402738000000</v>
-      </c>
-      <c r="Q58" t="n">
         <v>3348332000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2897,53 +2683,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1425398552000000</v>
+        <v>1467805954000000</v>
       </c>
       <c r="C68" t="n">
-        <v>1490104755000000</v>
+        <v>1516869903000000</v>
       </c>
       <c r="D68" t="n">
-        <v>1446044081000000</v>
+        <v>1558887407000000</v>
       </c>
       <c r="E68" t="n">
-        <v>1446353871000000</v>
+        <v>1642499101000000</v>
       </c>
       <c r="F68" t="n">
-        <v>1467805954000000</v>
+        <v>1686678164000000</v>
       </c>
       <c r="G68" t="n">
-        <v>1516869903000000</v>
+        <v>1761938950000000</v>
       </c>
       <c r="H68" t="n">
-        <v>1558887407000000</v>
+        <v>1847704434000000</v>
       </c>
       <c r="I68" t="n">
-        <v>1642499101000000</v>
+        <v>1979416229000000</v>
       </c>
       <c r="J68" t="n">
-        <v>1686678164000000</v>
+        <v>2048952718000000</v>
       </c>
       <c r="K68" t="n">
-        <v>1761938950000000</v>
+        <v>2120527692000000</v>
       </c>
       <c r="L68" t="n">
-        <v>1847704434000000</v>
+        <v>2106864549000000</v>
       </c>
       <c r="M68" t="n">
-        <v>1979416229000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>2048952718000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>2120527692000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>2106864549000000</v>
-      </c>
-      <c r="Q68" t="n">
         <v>2124802899000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2952,53 +2730,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>94246424000000</v>
+        <v>22468994000000</v>
       </c>
       <c r="C69" t="n">
-        <v>108760008000000</v>
+        <v>17222797000000</v>
       </c>
       <c r="D69" t="n">
-        <v>66443740000000</v>
+        <v>27563388000000</v>
       </c>
       <c r="E69" t="n">
-        <v>32953523000000</v>
+        <v>16532216000000</v>
       </c>
       <c r="F69" t="n">
-        <v>22468994000000</v>
+        <v>15994609000000</v>
       </c>
       <c r="G69" t="n">
-        <v>17222797000000</v>
+        <v>25340018000000</v>
       </c>
       <c r="H69" t="n">
-        <v>27563388000000</v>
+        <v>53362966000000</v>
       </c>
       <c r="I69" t="n">
-        <v>16532216000000</v>
+        <v>84297021000000</v>
       </c>
       <c r="J69" t="n">
-        <v>15994609000000</v>
+        <v>134768423000000</v>
       </c>
       <c r="K69" t="n">
-        <v>25340018000000</v>
+        <v>152752718000000</v>
       </c>
       <c r="L69" t="n">
-        <v>53362966000000</v>
+        <v>123421894000000</v>
       </c>
       <c r="M69" t="n">
-        <v>84297021000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>134768423000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>152752718000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>123421894000000</v>
-      </c>
-      <c r="Q69" t="n">
         <v>51539169000000</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3214,53 +2984,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>89486907000000</v>
+        <v>84989916000000</v>
       </c>
       <c r="C79" t="n">
-        <v>76607606000000</v>
+        <v>82353246000000</v>
       </c>
       <c r="D79" t="n">
-        <v>84502099000000</v>
+        <v>112052995000000</v>
       </c>
       <c r="E79" t="n">
-        <v>67567177000000</v>
+        <v>102454278000000</v>
       </c>
       <c r="F79" t="n">
-        <v>84989916000000</v>
+        <v>111856972000000</v>
       </c>
       <c r="G79" t="n">
-        <v>82353246000000</v>
+        <v>98003606000000</v>
       </c>
       <c r="H79" t="n">
-        <v>112052995000000</v>
+        <v>128450020000000</v>
       </c>
       <c r="I79" t="n">
-        <v>102454278000000</v>
+        <v>208128128000000</v>
       </c>
       <c r="J79" t="n">
-        <v>111856972000000</v>
+        <v>199716316000000</v>
       </c>
       <c r="K79" t="n">
-        <v>98003606000000</v>
+        <v>178797484000000</v>
       </c>
       <c r="L79" t="n">
-        <v>128450020000000</v>
+        <v>146847411000000</v>
       </c>
       <c r="M79" t="n">
-        <v>208128128000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>199716316000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>178797484000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>146847411000000</v>
-      </c>
-      <c r="Q79" t="n">
         <v>191572674000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3269,53 +3031,45 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>39401736000000</v>
+        <v>40332002000000</v>
       </c>
       <c r="C80" t="n">
-        <v>28819280000000</v>
+        <v>40920784000000</v>
       </c>
       <c r="D80" t="n">
-        <v>36983238000000</v>
+        <v>69279441000000</v>
       </c>
       <c r="E80" t="n">
-        <v>21448567</v>
+        <v>59827630000000</v>
       </c>
       <c r="F80" t="n">
-        <v>40332002000000</v>
+        <v>68505758000000</v>
       </c>
       <c r="G80" t="n">
-        <v>40920784000000</v>
+        <v>58949853000000</v>
       </c>
       <c r="H80" t="n">
-        <v>69279441000000</v>
+        <v>88912742000000</v>
       </c>
       <c r="I80" t="n">
-        <v>59827630000000</v>
+        <v>163091951000000</v>
       </c>
       <c r="J80" t="n">
-        <v>68505758000000</v>
+        <v>157871098000000</v>
       </c>
       <c r="K80" t="n">
-        <v>58949853000000</v>
+        <v>138312183000000</v>
       </c>
       <c r="L80" t="n">
-        <v>88912742000000</v>
+        <v>116596868000000</v>
       </c>
       <c r="M80" t="n">
-        <v>163091951000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>157871098000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>138312183000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>116596868000000</v>
-      </c>
-      <c r="Q80" t="n">
         <v>158440535000000</v>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3324,53 +3078,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>50085171000000</v>
+        <v>44657914000000</v>
       </c>
       <c r="C81" t="n">
-        <v>47788326000000</v>
+        <v>41432462000000</v>
       </c>
       <c r="D81" t="n">
-        <v>47518861000000</v>
+        <v>42773554000000</v>
       </c>
       <c r="E81" t="n">
-        <v>46118610000000</v>
+        <v>42626648000000</v>
       </c>
       <c r="F81" t="n">
-        <v>44657914000000</v>
+        <v>43351214000000</v>
       </c>
       <c r="G81" t="n">
-        <v>41432462000000</v>
+        <v>39053753000000</v>
       </c>
       <c r="H81" t="n">
-        <v>42773554000000</v>
+        <v>39537278000000</v>
       </c>
       <c r="I81" t="n">
-        <v>42626648000000</v>
+        <v>45036177000000</v>
       </c>
       <c r="J81" t="n">
-        <v>43351214000000</v>
+        <v>41845218000000</v>
       </c>
       <c r="K81" t="n">
-        <v>39053753000000</v>
+        <v>40485301000000</v>
       </c>
       <c r="L81" t="n">
-        <v>39537278000000</v>
+        <v>30250543000000</v>
       </c>
       <c r="M81" t="n">
-        <v>45036177000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>41845218000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>40485301000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>30250543000000</v>
-      </c>
-      <c r="Q81" t="n">
         <v>33132139000000</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3425,53 +3171,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1084798261000000</v>
+        <v>1145003968000000</v>
       </c>
       <c r="C84" t="n">
-        <v>1114231270000000</v>
+        <v>1226673942000000</v>
       </c>
       <c r="D84" t="n">
-        <v>1100292897000000</v>
+        <v>1225957672000000</v>
       </c>
       <c r="E84" t="n">
-        <v>1131517854000000</v>
+        <v>1293997030000000</v>
       </c>
       <c r="F84" t="n">
-        <v>1145003968000000</v>
+        <v>1309952776000000</v>
       </c>
       <c r="G84" t="n">
-        <v>1226673942000000</v>
+        <v>1380401585000000</v>
       </c>
       <c r="H84" t="n">
-        <v>1225957672000000</v>
+        <v>1396301169000000</v>
       </c>
       <c r="I84" t="n">
-        <v>1293997030000000</v>
+        <v>1406297004000000</v>
       </c>
       <c r="J84" t="n">
-        <v>1309952776000000</v>
+        <v>1414224009000000</v>
       </c>
       <c r="K84" t="n">
-        <v>1380401585000000</v>
+        <v>1473604981000000</v>
       </c>
       <c r="L84" t="n">
-        <v>1396301169000000</v>
+        <v>1497395473000000</v>
       </c>
       <c r="M84" t="n">
-        <v>1406297004000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1414224009000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>1473604981000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>1497395473000000</v>
-      </c>
-      <c r="Q84" t="n">
         <v>1545569148000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3693,13 +3431,13 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>14923000000</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>14923000000</v>
-      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
@@ -3780,13 +3518,13 @@
           <t>D.VỐN CHỦ SỞ HỮU</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>1383365229000000</v>
+      </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="n">
-        <v>1383365229000000</v>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -3829,7 +3567,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>34187153000000</v>
+        <v>40220180000000</v>
       </c>
       <c r="C100" t="n">
         <v>40220180000000</v>
@@ -3844,16 +3582,16 @@
         <v>40220180000000</v>
       </c>
       <c r="G100" t="n">
-        <v>40220180000000</v>
+        <v>50585239000000</v>
       </c>
       <c r="H100" t="n">
-        <v>40220180000000</v>
+        <v>50585239000000</v>
       </c>
       <c r="I100" t="n">
-        <v>40220180000000</v>
+        <v>50585239000000</v>
       </c>
       <c r="J100" t="n">
-        <v>40220180000000</v>
+        <v>50585239000000</v>
       </c>
       <c r="K100" t="n">
         <v>50585239000000</v>
@@ -3864,18 +3602,10 @@
       <c r="M100" t="n">
         <v>50585239000000</v>
       </c>
-      <c r="N100" t="n">
-        <v>50585239000000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>50585239000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>50585239000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>50585239000000</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3953,7 +3683,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>30306000000</v>
+        <v>14292382000000</v>
       </c>
       <c r="C104" t="n">
         <v>14292382000000</v>
@@ -3977,29 +3707,21 @@
         <v>14292382000000</v>
       </c>
       <c r="J104" t="n">
-        <v>14292382000000</v>
+        <v>15351407000000</v>
       </c>
       <c r="K104" t="n">
-        <v>14292382000000</v>
+        <v>15351407000000</v>
       </c>
       <c r="L104" t="n">
-        <v>14292382000000</v>
+        <v>15351407000000</v>
       </c>
       <c r="M104" t="n">
-        <v>14292382000000</v>
-      </c>
-      <c r="N104" t="n">
         <v>15351407000000</v>
       </c>
-      <c r="O104" t="n">
-        <v>15351407000000</v>
-      </c>
-      <c r="P104" t="n">
-        <v>15351407000000</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>15351407000000</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4062,7 +3784,9 @@
       <c r="D107" t="n">
         <v>267851000000</v>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>267851000000</v>
+      </c>
       <c r="F107" t="n">
         <v>267851000000</v>
       </c>
@@ -4087,18 +3811,10 @@
       <c r="M107" t="n">
         <v>267851000000</v>
       </c>
-      <c r="N107" t="n">
-        <v>267851000000</v>
-      </c>
-      <c r="O107" t="n">
-        <v>267851000000</v>
-      </c>
-      <c r="P107" t="n">
-        <v>267851000000</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>267851000000</v>
-      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4176,53 +3892,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5739691000000</v>
+        <v>7044607000000</v>
       </c>
       <c r="C111" t="n">
-        <v>5743756000000</v>
+        <v>7050915000000</v>
       </c>
       <c r="D111" t="n">
-        <v>705898000000</v>
+        <v>8072474000000</v>
       </c>
       <c r="E111" t="n">
-        <v>7040491000000</v>
+        <v>8109089000000</v>
       </c>
       <c r="F111" t="n">
-        <v>7044607000000</v>
+        <v>8113154000000</v>
       </c>
       <c r="G111" t="n">
-        <v>7050915000000</v>
+        <v>8136443000000</v>
       </c>
       <c r="H111" t="n">
-        <v>8072474000000</v>
+        <v>9695744000000</v>
       </c>
       <c r="I111" t="n">
-        <v>8109089000000</v>
+        <v>9745192000000</v>
       </c>
       <c r="J111" t="n">
-        <v>8113154000000</v>
+        <v>9725622000000</v>
       </c>
       <c r="K111" t="n">
-        <v>8136443000000</v>
+        <v>9730169000000</v>
       </c>
       <c r="L111" t="n">
-        <v>9695744000000</v>
+        <v>12450446000000</v>
       </c>
       <c r="M111" t="n">
-        <v>9745192000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>9725622000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>9730169000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>12450446000000</v>
-      </c>
-      <c r="Q111" t="n">
         <v>12481194000000</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4346,53 +4054,45 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>172422000000</v>
+        <v>113045000000</v>
       </c>
       <c r="C117" t="n">
-        <v>125582000000</v>
+        <v>50098000000</v>
       </c>
       <c r="D117" t="n">
-        <v>298263000000</v>
+        <v>18605000000</v>
       </c>
       <c r="E117" t="n">
-        <v>149747000000</v>
+        <v>-7701000000</v>
       </c>
       <c r="F117" t="n">
-        <v>113045000000</v>
+        <v>-197504000000</v>
       </c>
       <c r="G117" t="n">
-        <v>50098000000</v>
+        <v>-368660000000</v>
       </c>
       <c r="H117" t="n">
-        <v>18605000000</v>
+        <v>-472425000000</v>
       </c>
       <c r="I117" t="n">
-        <v>-7701000000</v>
+        <v>-270464000000</v>
       </c>
       <c r="J117" t="n">
-        <v>-197504000000</v>
+        <v>-265954000000</v>
       </c>
       <c r="K117" t="n">
-        <v>-368660000000</v>
+        <v>-770027000000</v>
       </c>
       <c r="L117" t="n">
-        <v>-472425000000</v>
+        <v>-661693000000</v>
       </c>
       <c r="M117" t="n">
-        <v>-270464000000</v>
-      </c>
-      <c r="N117" t="n">
-        <v>-265954000000</v>
-      </c>
-      <c r="O117" t="n">
-        <v>-770027000000</v>
-      </c>
-      <c r="P117" t="n">
-        <v>-661693000000</v>
-      </c>
-      <c r="Q117" t="n">
         <v>-711622000000</v>
       </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
